--- a/Devops.xlsx
+++ b/Devops.xlsx
@@ -1,37 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VENKTESH\Desktop\Devops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Devops\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E1C85-4E96-4034-8427-62658AD2C88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="36" r:id="rId1"/>
-    <sheet name="SDLC" sheetId="1" r:id="rId2"/>
-    <sheet name="GIT" sheetId="2" r:id="rId3"/>
-    <sheet name="GITHUB" sheetId="3" r:id="rId4"/>
-    <sheet name="BASH" sheetId="4" r:id="rId5"/>
-    <sheet name="JENKINS" sheetId="5" r:id="rId6"/>
-    <sheet name="MAVEN" sheetId="6" r:id="rId7"/>
-    <sheet name="SONARQUBE" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet37" sheetId="37" r:id="rId9"/>
-    <sheet name="NEXUS" sheetId="9" r:id="rId10"/>
-    <sheet name="ANSIBLE" sheetId="10" r:id="rId11"/>
-    <sheet name="DOCKER" sheetId="11" r:id="rId12"/>
-    <sheet name="KUBERNETES" sheetId="12" r:id="rId13"/>
-    <sheet name="AWS" sheetId="13" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="39" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="38" r:id="rId3"/>
+    <sheet name="SDLC" sheetId="1" r:id="rId4"/>
+    <sheet name="GIT" sheetId="2" r:id="rId5"/>
+    <sheet name="GITHUB" sheetId="3" r:id="rId6"/>
+    <sheet name="BASH" sheetId="4" r:id="rId7"/>
+    <sheet name="JENKINS" sheetId="5" r:id="rId8"/>
+    <sheet name="MAVEN" sheetId="6" r:id="rId9"/>
+    <sheet name="SONARQUBE" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet37" sheetId="37" r:id="rId11"/>
+    <sheet name="NEXUS" sheetId="9" r:id="rId12"/>
+    <sheet name="ANSIBLE" sheetId="10" r:id="rId13"/>
+    <sheet name="DOCKER" sheetId="11" r:id="rId14"/>
+    <sheet name="KUBERNETES" sheetId="12" r:id="rId15"/>
+    <sheet name="AWS" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="rng_Expenses20">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>BAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>ANSIB</t>
   </si>
@@ -58,9 +57,6 @@
     <t>MAVEN</t>
   </si>
   <si>
-    <t>SONARQUBE</t>
-  </si>
-  <si>
     <t>ANSIBLE</t>
   </si>
   <si>
@@ -88,77 +84,119 @@
     <t>AWS DEVOPS</t>
   </si>
   <si>
-    <t>Git Basics</t>
-  </si>
-  <si>
-    <t>ELB + ASG</t>
-  </si>
-  <si>
-    <t>EC2 +  IAM</t>
+    <t>BASH</t>
+  </si>
+  <si>
+    <t>stage('Invoke another pipeline') {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (currentBuild.result == 'SUCCESS') { </t>
+  </si>
+  <si>
+    <t>build(job: '&lt;job path&gt;', parameters: [credentials('parameter-name', 'credentials-id')])</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>SDLC</t>
+  </si>
+  <si>
+    <t>SonarQube</t>
+  </si>
+  <si>
+    <t>Linux Architecture</t>
+  </si>
+  <si>
+    <t>File System</t>
+  </si>
+  <si>
+    <t>SheBang!</t>
+  </si>
+  <si>
+    <t>Managing Files</t>
+  </si>
+  <si>
+    <t>Valaxy</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>Free Style</t>
+  </si>
+  <si>
+    <t>https://github.com/jenkinsci/docker-slaves-plugin</t>
+  </si>
+  <si>
+    <t>AWX</t>
+  </si>
+  <si>
+    <t>Udemy Course</t>
+  </si>
+  <si>
+    <t>Maven Intro</t>
+  </si>
+  <si>
+    <t>Getting started</t>
+  </si>
+  <si>
+    <t>Compiling Java</t>
+  </si>
+  <si>
+    <t>Maven Basics</t>
+  </si>
+  <si>
+    <t>Common Plugins</t>
+  </si>
+  <si>
+    <t>Testing with Maven</t>
+  </si>
+  <si>
+    <t>Multi module</t>
+  </si>
+  <si>
+    <t>YouTube 3hrs</t>
+  </si>
+  <si>
+    <t>Helloworld</t>
+  </si>
+  <si>
+    <t>Redirction</t>
+  </si>
+  <si>
+    <t>Conditional Statement</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>RDS + AURORA + ELASTICCAHE</t>
-  </si>
-  <si>
-    <t>ROUTE 53</t>
-  </si>
-  <si>
-    <t>VPC</t>
-  </si>
-  <si>
-    <t>Git Branching</t>
-  </si>
-  <si>
-    <t>BASH</t>
-  </si>
-  <si>
-    <t>S3 + Athena + CloudFront</t>
-  </si>
-  <si>
-    <t>ECS</t>
-  </si>
-  <si>
-    <t>Elastic BeanStalk</t>
-  </si>
-  <si>
-    <t>Basics</t>
-  </si>
-  <si>
-    <t>Special Characters</t>
-  </si>
-  <si>
-    <t>Distributed Git</t>
-  </si>
-  <si>
-    <t>Fundamentals</t>
+    <t>for loop</t>
+  </si>
+  <si>
+    <t>Mithun Tech</t>
+  </si>
+  <si>
+    <t>Udemy</t>
   </si>
   <si>
     <t>Installation</t>
   </si>
   <si>
-    <t>Code Pipeline</t>
-  </si>
-  <si>
-    <t>Cloud Formation</t>
-  </si>
-  <si>
-    <t>SNS SQS KINESIS</t>
-  </si>
-  <si>
-    <t>EBS + EFS + Instance Store</t>
+    <t>Instalation</t>
+  </si>
+  <si>
+    <t>Architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +278,22 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,38 +433,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="20% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent6 2" xfId="23"/>
-    <cellStyle name="Currency 2" xfId="7"/>
-    <cellStyle name="Date" xfId="8"/>
-    <cellStyle name="Date 10" xfId="17"/>
-    <cellStyle name="Date 11" xfId="18"/>
-    <cellStyle name="Date 12" xfId="19"/>
-    <cellStyle name="Date 13" xfId="21"/>
-    <cellStyle name="Date 2" xfId="9"/>
-    <cellStyle name="Date 3" xfId="10"/>
-    <cellStyle name="Date 4" xfId="11"/>
-    <cellStyle name="Date 5" xfId="12"/>
-    <cellStyle name="Date 6" xfId="13"/>
-    <cellStyle name="Date 7" xfId="14"/>
-    <cellStyle name="Date 8" xfId="15"/>
-    <cellStyle name="Date 9" xfId="16"/>
-    <cellStyle name="Heading 1 2" xfId="2"/>
-    <cellStyle name="Heading 2 2" xfId="3"/>
-    <cellStyle name="Left table border" xfId="24"/>
+    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent6 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Date" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Date 10" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Date 11" xfId="18" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Date 12" xfId="19" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Date 13" xfId="21" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Date 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Date 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Date 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Date 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Date 6" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Date 7" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Date 8" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Date 9" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Heading 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Left table border" xfId="24" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Right table border" xfId="22"/>
-    <cellStyle name="Start Text" xfId="5"/>
-    <cellStyle name="Title 2" xfId="4"/>
-    <cellStyle name="z A Column text" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Right table border" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Start Text" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Title 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="z A Column text" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,187 +747,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="K5" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="1"/>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="1"/>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="1"/>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="1"/>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="1"/>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="1"/>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="2"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -876,30 +919,56 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -907,158 +976,295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="42.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EF38C-D8D7-4528-A68B-1EC1115ECCD3}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97280770-C0DC-4D25-AF42-A106CD627E14}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>